--- a/CLASS_B/01-Excel/3/Activities/05-Par_HomeSales-ScatterPlots/Unsolved/HomeSales_Unsolved.xlsx
+++ b/CLASS_B/01-Excel/3/Activities/05-Par_HomeSales-ScatterPlots/Unsolved/HomeSales_Unsolved.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\3\Activities\05-Par_GameSales\Unsolved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\datan\new\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\3\Activities\05-Par_HomeSales-ScatterPlots\Unsolved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3973A9F5-87F0-4C9B-896C-4B42674ADA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E210B924-D40C-4567-B5C5-488DDE2DE2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="home_sales" sheetId="1" r:id="rId1"/>
@@ -2467,19 +2467,19 @@
   <dimension ref="A1:T501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="1" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75">
+    <row r="1" spans="1:20" ht="15.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2523,7 +2523,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="33.75">
+    <row r="2" spans="1:20" ht="31.8">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -2567,7 +2567,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="33.75">
+    <row r="3" spans="1:20" ht="31.8">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="33.75">
+    <row r="4" spans="1:20" ht="31.8">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="33.75">
+    <row r="5" spans="1:20" ht="31.8">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2699,7 +2699,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="33.75">
+    <row r="6" spans="1:20" ht="31.8">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="33.75">
+    <row r="7" spans="1:20" ht="31.8">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -2787,7 +2787,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" ht="33.75">
+    <row r="8" spans="1:20" ht="31.8">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -2831,7 +2831,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" ht="33.75">
+    <row r="9" spans="1:20" ht="31.8">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -2875,7 +2875,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" ht="33.75">
+    <row r="10" spans="1:20" ht="31.8">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -2919,7 +2919,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" ht="33.75">
+    <row r="11" spans="1:20" ht="31.8">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2963,7 +2963,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" ht="33.75">
+    <row r="12" spans="1:20" ht="31.8">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -3007,7 +3007,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" ht="33.75">
+    <row r="13" spans="1:20" ht="31.8">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" ht="33.75">
+    <row r="14" spans="1:20" ht="31.8">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -3095,7 +3095,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" ht="33.75">
+    <row r="15" spans="1:20" ht="31.8">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3139,7 +3139,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" ht="33.75">
+    <row r="16" spans="1:20" ht="31.8">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3183,7 +3183,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" ht="33.75">
+    <row r="17" spans="1:20" ht="31.8">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" ht="33.75">
+    <row r="18" spans="1:20" ht="31.8">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -3271,7 +3271,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" ht="33.75">
+    <row r="19" spans="1:20" ht="31.8">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" ht="33.75">
+    <row r="20" spans="1:20" ht="31.8">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -3359,7 +3359,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" ht="33.75">
+    <row r="21" spans="1:20" ht="31.8">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -3403,7 +3403,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" ht="33.75">
+    <row r="22" spans="1:20" ht="31.8">
       <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
@@ -3447,7 +3447,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" ht="33.75">
+    <row r="23" spans="1:20" ht="31.8">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
@@ -3491,7 +3491,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" ht="33.75">
+    <row r="24" spans="1:20" ht="31.8">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -3535,7 +3535,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" ht="33.75">
+    <row r="25" spans="1:20" ht="31.8">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
@@ -3579,7 +3579,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" ht="33.75">
+    <row r="26" spans="1:20" ht="31.8">
       <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" ht="33.75">
+    <row r="27" spans="1:20" ht="31.8">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -3667,7 +3667,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" ht="33.75">
+    <row r="28" spans="1:20" ht="31.8">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
@@ -3711,7 +3711,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" ht="33.75">
+    <row r="29" spans="1:20" ht="31.8">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
@@ -3755,7 +3755,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" ht="33.75">
+    <row r="30" spans="1:20" ht="31.8">
       <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
@@ -3799,7 +3799,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" ht="33.75">
+    <row r="31" spans="1:20" ht="31.8">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" ht="33.75">
+    <row r="32" spans="1:20" ht="31.8">
       <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
@@ -3887,7 +3887,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" ht="33.75">
+    <row r="33" spans="1:20" ht="31.8">
       <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" ht="33.75">
+    <row r="34" spans="1:20" ht="31.8">
       <c r="A34" s="3" t="s">
         <v>43</v>
       </c>
@@ -3975,7 +3975,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" ht="33.75">
+    <row r="35" spans="1:20" ht="31.8">
       <c r="A35" s="3" t="s">
         <v>44</v>
       </c>
@@ -4019,7 +4019,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" ht="33.75">
+    <row r="36" spans="1:20" ht="31.8">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
@@ -4063,7 +4063,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" ht="33.75">
+    <row r="37" spans="1:20" ht="31.8">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
@@ -4107,7 +4107,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" ht="33.75">
+    <row r="38" spans="1:20" ht="31.8">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -4151,7 +4151,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" ht="33.75">
+    <row r="39" spans="1:20" ht="31.8">
       <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
@@ -4195,7 +4195,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" ht="33.75">
+    <row r="40" spans="1:20" ht="31.8">
       <c r="A40" s="5" t="s">
         <v>49</v>
       </c>
@@ -4239,7 +4239,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" ht="33.75">
+    <row r="41" spans="1:20" ht="31.8">
       <c r="A41" s="3" t="s">
         <v>50</v>
       </c>
@@ -4283,7 +4283,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" ht="33.75">
+    <row r="42" spans="1:20" ht="31.8">
       <c r="A42" s="3" t="s">
         <v>51</v>
       </c>
@@ -4327,7 +4327,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" ht="33.75">
+    <row r="43" spans="1:20" ht="31.8">
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
@@ -4371,7 +4371,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" ht="33.75">
+    <row r="44" spans="1:20" ht="31.8">
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
@@ -4415,7 +4415,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" ht="33.75">
+    <row r="45" spans="1:20" ht="31.8">
       <c r="A45" s="3" t="s">
         <v>54</v>
       </c>
@@ -4459,7 +4459,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" ht="33.75">
+    <row r="46" spans="1:20" ht="31.8">
       <c r="A46" s="3" t="s">
         <v>55</v>
       </c>
@@ -4503,7 +4503,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" ht="33.75">
+    <row r="47" spans="1:20" ht="31.8">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
@@ -4547,7 +4547,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" ht="33.75">
+    <row r="48" spans="1:20" ht="31.8">
       <c r="A48" s="3" t="s">
         <v>57</v>
       </c>
@@ -4591,7 +4591,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" ht="33.75">
+    <row r="49" spans="1:20" ht="31.8">
       <c r="A49" s="3" t="s">
         <v>58</v>
       </c>
@@ -4635,7 +4635,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" ht="33.75">
+    <row r="50" spans="1:20" ht="31.8">
       <c r="A50" s="3" t="s">
         <v>59</v>
       </c>
@@ -4679,7 +4679,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" ht="33.75">
+    <row r="51" spans="1:20" ht="31.8">
       <c r="A51" s="3" t="s">
         <v>60</v>
       </c>
@@ -4723,7 +4723,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" ht="33.75">
+    <row r="52" spans="1:20" ht="31.8">
       <c r="A52" s="3" t="s">
         <v>61</v>
       </c>
@@ -4767,7 +4767,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" ht="33.75">
+    <row r="53" spans="1:20" ht="31.8">
       <c r="A53" s="3" t="s">
         <v>62</v>
       </c>
@@ -4811,7 +4811,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" ht="33.75">
+    <row r="54" spans="1:20" ht="31.8">
       <c r="A54" s="3" t="s">
         <v>63</v>
       </c>
@@ -4855,7 +4855,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" ht="33.75">
+    <row r="55" spans="1:20" ht="31.8">
       <c r="A55" s="3" t="s">
         <v>64</v>
       </c>
@@ -4899,7 +4899,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" ht="33.75">
+    <row r="56" spans="1:20" ht="31.8">
       <c r="A56" s="3" t="s">
         <v>65</v>
       </c>
@@ -4943,7 +4943,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" ht="33.75">
+    <row r="57" spans="1:20" ht="31.8">
       <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
@@ -4987,7 +4987,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" ht="33.75">
+    <row r="58" spans="1:20" ht="31.8">
       <c r="A58" s="3" t="s">
         <v>67</v>
       </c>
@@ -5031,7 +5031,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" ht="33.75">
+    <row r="59" spans="1:20" ht="31.8">
       <c r="A59" s="3" t="s">
         <v>68</v>
       </c>
@@ -5075,7 +5075,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" ht="33.75">
+    <row r="60" spans="1:20" ht="31.8">
       <c r="A60" s="3" t="s">
         <v>69</v>
       </c>
@@ -5119,7 +5119,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" ht="33.75">
+    <row r="61" spans="1:20" ht="31.8">
       <c r="A61" s="3" t="s">
         <v>70</v>
       </c>
@@ -5163,7 +5163,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" ht="33.75">
+    <row r="62" spans="1:20" ht="31.8">
       <c r="A62" s="3" t="s">
         <v>71</v>
       </c>
@@ -5207,7 +5207,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" ht="33.75">
+    <row r="63" spans="1:20" ht="31.8">
       <c r="A63" s="3" t="s">
         <v>72</v>
       </c>
@@ -5251,7 +5251,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" ht="33.75">
+    <row r="64" spans="1:20" ht="31.8">
       <c r="A64" s="3" t="s">
         <v>73</v>
       </c>
@@ -5295,7 +5295,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" ht="33.75">
+    <row r="65" spans="1:20" ht="31.8">
       <c r="A65" s="3" t="s">
         <v>74</v>
       </c>
@@ -5339,7 +5339,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" ht="33.75">
+    <row r="66" spans="1:20" ht="31.8">
       <c r="A66" s="3" t="s">
         <v>75</v>
       </c>
@@ -5383,7 +5383,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" ht="33.75">
+    <row r="67" spans="1:20" ht="31.8">
       <c r="A67" s="3" t="s">
         <v>76</v>
       </c>
@@ -5427,7 +5427,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" ht="33.75">
+    <row r="68" spans="1:20" ht="31.8">
       <c r="A68" s="3" t="s">
         <v>77</v>
       </c>
@@ -5471,7 +5471,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" ht="33.75">
+    <row r="69" spans="1:20" ht="31.8">
       <c r="A69" s="3" t="s">
         <v>78</v>
       </c>
@@ -5515,7 +5515,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" ht="33.75">
+    <row r="70" spans="1:20" ht="31.8">
       <c r="A70" s="3" t="s">
         <v>79</v>
       </c>
@@ -5559,7 +5559,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" ht="33.75">
+    <row r="71" spans="1:20" ht="31.8">
       <c r="A71" s="3" t="s">
         <v>80</v>
       </c>
@@ -5603,7 +5603,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" ht="33.75">
+    <row r="72" spans="1:20" ht="31.8">
       <c r="A72" s="3" t="s">
         <v>81</v>
       </c>
@@ -5647,7 +5647,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" ht="33.75">
+    <row r="73" spans="1:20" ht="31.8">
       <c r="A73" s="3" t="s">
         <v>82</v>
       </c>
@@ -5691,7 +5691,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" ht="33.75">
+    <row r="74" spans="1:20" ht="31.8">
       <c r="A74" s="3" t="s">
         <v>83</v>
       </c>
@@ -5735,7 +5735,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" ht="33.75">
+    <row r="75" spans="1:20" ht="31.8">
       <c r="A75" s="3" t="s">
         <v>84</v>
       </c>
@@ -5779,7 +5779,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" ht="33.75">
+    <row r="76" spans="1:20" ht="31.8">
       <c r="A76" s="3" t="s">
         <v>85</v>
       </c>
@@ -5823,7 +5823,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" ht="33.75">
+    <row r="77" spans="1:20" ht="31.8">
       <c r="A77" s="3" t="s">
         <v>86</v>
       </c>
@@ -5867,7 +5867,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" ht="33.75">
+    <row r="78" spans="1:20" ht="31.8">
       <c r="A78" s="3" t="s">
         <v>87</v>
       </c>
@@ -5911,7 +5911,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" ht="33.75">
+    <row r="79" spans="1:20" ht="31.8">
       <c r="A79" s="3" t="s">
         <v>88</v>
       </c>
@@ -5955,7 +5955,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" ht="33.75">
+    <row r="80" spans="1:20" ht="31.8">
       <c r="A80" s="3" t="s">
         <v>89</v>
       </c>
@@ -5999,7 +5999,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" ht="33.75">
+    <row r="81" spans="1:20" ht="31.8">
       <c r="A81" s="3" t="s">
         <v>90</v>
       </c>
@@ -6043,7 +6043,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" ht="33.75">
+    <row r="82" spans="1:20" ht="31.8">
       <c r="A82" s="3" t="s">
         <v>91</v>
       </c>
@@ -6087,7 +6087,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" ht="33.75">
+    <row r="83" spans="1:20" ht="31.8">
       <c r="A83" s="3" t="s">
         <v>92</v>
       </c>
@@ -6131,7 +6131,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" ht="33.75">
+    <row r="84" spans="1:20" ht="31.8">
       <c r="A84" s="3" t="s">
         <v>93</v>
       </c>
@@ -6175,7 +6175,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" ht="33.75">
+    <row r="85" spans="1:20" ht="31.8">
       <c r="A85" s="3" t="s">
         <v>94</v>
       </c>
@@ -6219,7 +6219,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" ht="33.75">
+    <row r="86" spans="1:20" ht="31.8">
       <c r="A86" s="3" t="s">
         <v>95</v>
       </c>
@@ -6263,7 +6263,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" ht="33.75">
+    <row r="87" spans="1:20" ht="31.8">
       <c r="A87" s="3" t="s">
         <v>96</v>
       </c>
@@ -6307,7 +6307,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" ht="33.75">
+    <row r="88" spans="1:20" ht="31.8">
       <c r="A88" s="3" t="s">
         <v>97</v>
       </c>
@@ -6351,7 +6351,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" ht="33.75">
+    <row r="89" spans="1:20" ht="31.8">
       <c r="A89" s="3" t="s">
         <v>98</v>
       </c>
@@ -6395,7 +6395,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" ht="33.75">
+    <row r="90" spans="1:20" ht="31.8">
       <c r="A90" s="3" t="s">
         <v>99</v>
       </c>
@@ -6439,7 +6439,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" ht="33.75">
+    <row r="91" spans="1:20" ht="31.8">
       <c r="A91" s="3" t="s">
         <v>100</v>
       </c>
@@ -6483,7 +6483,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" ht="33.75">
+    <row r="92" spans="1:20" ht="31.8">
       <c r="A92" s="3" t="s">
         <v>101</v>
       </c>
@@ -6527,7 +6527,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" ht="33.75">
+    <row r="93" spans="1:20" ht="31.8">
       <c r="A93" s="3" t="s">
         <v>102</v>
       </c>
@@ -6571,7 +6571,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" ht="33.75">
+    <row r="94" spans="1:20" ht="31.8">
       <c r="A94" s="3" t="s">
         <v>103</v>
       </c>
@@ -6615,7 +6615,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" ht="33.75">
+    <row r="95" spans="1:20" ht="31.8">
       <c r="A95" s="3" t="s">
         <v>104</v>
       </c>
@@ -6659,7 +6659,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" ht="33.75">
+    <row r="96" spans="1:20" ht="31.8">
       <c r="A96" s="5" t="s">
         <v>105</v>
       </c>
@@ -6703,7 +6703,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20" ht="33.75">
+    <row r="97" spans="1:20" ht="31.8">
       <c r="A97" s="3" t="s">
         <v>106</v>
       </c>
@@ -6747,7 +6747,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20" ht="33.75">
+    <row r="98" spans="1:20" ht="31.8">
       <c r="A98" s="3" t="s">
         <v>107</v>
       </c>
@@ -6791,7 +6791,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20" ht="33.75">
+    <row r="99" spans="1:20" ht="31.8">
       <c r="A99" s="3" t="s">
         <v>108</v>
       </c>
@@ -6835,7 +6835,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20" ht="33.75">
+    <row r="100" spans="1:20" ht="31.8">
       <c r="A100" s="3" t="s">
         <v>109</v>
       </c>
@@ -6879,7 +6879,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" ht="33.75">
+    <row r="101" spans="1:20" ht="31.8">
       <c r="A101" s="3" t="s">
         <v>110</v>
       </c>
@@ -6923,7 +6923,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20" ht="33.75">
+    <row r="102" spans="1:20" ht="31.8">
       <c r="A102" s="3" t="s">
         <v>111</v>
       </c>
@@ -6967,7 +6967,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20" ht="33.75">
+    <row r="103" spans="1:20" ht="31.8">
       <c r="A103" s="3" t="s">
         <v>112</v>
       </c>
@@ -7011,7 +7011,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20" ht="33.75">
+    <row r="104" spans="1:20" ht="31.8">
       <c r="A104" s="3" t="s">
         <v>113</v>
       </c>
@@ -7055,7 +7055,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20" ht="33.75">
+    <row r="105" spans="1:20" ht="31.8">
       <c r="A105" s="3" t="s">
         <v>114</v>
       </c>
@@ -7099,7 +7099,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20" ht="33.75">
+    <row r="106" spans="1:20" ht="31.8">
       <c r="A106" s="3" t="s">
         <v>115</v>
       </c>
@@ -7143,7 +7143,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20" ht="33.75">
+    <row r="107" spans="1:20" ht="31.8">
       <c r="A107" s="3" t="s">
         <v>116</v>
       </c>
@@ -7187,7 +7187,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20" ht="33.75">
+    <row r="108" spans="1:20" ht="31.8">
       <c r="A108" s="3" t="s">
         <v>117</v>
       </c>
@@ -7231,7 +7231,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20" ht="33.75">
+    <row r="109" spans="1:20" ht="31.8">
       <c r="A109" s="3" t="s">
         <v>118</v>
       </c>
@@ -7275,7 +7275,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20" ht="33.75">
+    <row r="110" spans="1:20" ht="31.8">
       <c r="A110" s="3" t="s">
         <v>119</v>
       </c>
@@ -7319,7 +7319,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20" ht="33.75">
+    <row r="111" spans="1:20" ht="31.8">
       <c r="A111" s="3" t="s">
         <v>120</v>
       </c>
@@ -7363,7 +7363,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20" ht="33.75">
+    <row r="112" spans="1:20" ht="31.8">
       <c r="A112" s="3" t="s">
         <v>121</v>
       </c>
@@ -7407,7 +7407,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20" ht="33.75">
+    <row r="113" spans="1:20" ht="31.8">
       <c r="A113" s="3" t="s">
         <v>122</v>
       </c>
@@ -7451,7 +7451,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20" ht="33.75">
+    <row r="114" spans="1:20" ht="31.8">
       <c r="A114" s="3" t="s">
         <v>123</v>
       </c>
@@ -7495,7 +7495,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20" ht="33.75">
+    <row r="115" spans="1:20" ht="31.8">
       <c r="A115" s="3" t="s">
         <v>124</v>
       </c>
@@ -7539,7 +7539,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20" ht="33.75">
+    <row r="116" spans="1:20" ht="31.8">
       <c r="A116" s="5" t="s">
         <v>125</v>
       </c>
@@ -7583,7 +7583,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20" ht="33.75">
+    <row r="117" spans="1:20" ht="31.8">
       <c r="A117" s="3" t="s">
         <v>126</v>
       </c>
@@ -7627,7 +7627,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20" ht="33.75">
+    <row r="118" spans="1:20" ht="31.8">
       <c r="A118" s="3" t="s">
         <v>127</v>
       </c>
@@ -7671,7 +7671,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20" ht="33.75">
+    <row r="119" spans="1:20" ht="31.8">
       <c r="A119" s="3" t="s">
         <v>128</v>
       </c>
@@ -7715,7 +7715,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20" ht="33.75">
+    <row r="120" spans="1:20" ht="31.8">
       <c r="A120" s="3" t="s">
         <v>129</v>
       </c>
@@ -7759,7 +7759,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20" ht="33.75">
+    <row r="121" spans="1:20" ht="31.8">
       <c r="A121" s="3" t="s">
         <v>130</v>
       </c>
@@ -7803,7 +7803,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20" ht="33.75">
+    <row r="122" spans="1:20" ht="31.8">
       <c r="A122" s="3" t="s">
         <v>131</v>
       </c>
@@ -7847,7 +7847,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20" ht="33.75">
+    <row r="123" spans="1:20" ht="31.8">
       <c r="A123" s="3" t="s">
         <v>132</v>
       </c>
@@ -7891,7 +7891,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20" ht="33.75">
+    <row r="124" spans="1:20" ht="31.8">
       <c r="A124" s="3" t="s">
         <v>133</v>
       </c>
@@ -7935,7 +7935,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20" ht="33.75">
+    <row r="125" spans="1:20" ht="31.8">
       <c r="A125" s="3" t="s">
         <v>134</v>
       </c>
@@ -7979,7 +7979,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20" ht="33.75">
+    <row r="126" spans="1:20" ht="31.8">
       <c r="A126" s="3" t="s">
         <v>135</v>
       </c>
@@ -8023,7 +8023,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20" ht="33.75">
+    <row r="127" spans="1:20" ht="31.8">
       <c r="A127" s="3" t="s">
         <v>136</v>
       </c>
@@ -8067,7 +8067,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20" ht="33.75">
+    <row r="128" spans="1:20" ht="31.8">
       <c r="A128" s="3" t="s">
         <v>137</v>
       </c>
@@ -8111,7 +8111,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20" ht="33.75">
+    <row r="129" spans="1:20" ht="31.8">
       <c r="A129" s="3" t="s">
         <v>138</v>
       </c>
@@ -8155,7 +8155,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20" ht="33.75">
+    <row r="130" spans="1:20" ht="31.8">
       <c r="A130" s="3" t="s">
         <v>139</v>
       </c>
@@ -8199,7 +8199,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20" ht="33.75">
+    <row r="131" spans="1:20" ht="31.8">
       <c r="A131" s="3" t="s">
         <v>140</v>
       </c>
@@ -8243,7 +8243,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20" ht="33.75">
+    <row r="132" spans="1:20" ht="31.8">
       <c r="A132" s="3" t="s">
         <v>141</v>
       </c>
@@ -8287,7 +8287,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20" ht="33.75">
+    <row r="133" spans="1:20" ht="31.8">
       <c r="A133" s="3" t="s">
         <v>142</v>
       </c>
@@ -8331,7 +8331,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20" ht="33.75">
+    <row r="134" spans="1:20" ht="31.8">
       <c r="A134" s="3" t="s">
         <v>143</v>
       </c>
@@ -8375,7 +8375,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20" ht="33.75">
+    <row r="135" spans="1:20" ht="31.8">
       <c r="A135" s="3" t="s">
         <v>144</v>
       </c>
@@ -8419,7 +8419,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20" ht="33.75">
+    <row r="136" spans="1:20" ht="31.8">
       <c r="A136" s="3" t="s">
         <v>145</v>
       </c>
@@ -8463,7 +8463,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20" ht="33.75">
+    <row r="137" spans="1:20" ht="31.8">
       <c r="A137" s="3" t="s">
         <v>146</v>
       </c>
@@ -8507,7 +8507,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20" ht="33.75">
+    <row r="138" spans="1:20" ht="31.8">
       <c r="A138" s="3" t="s">
         <v>147</v>
       </c>
@@ -8551,7 +8551,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20" ht="33.75">
+    <row r="139" spans="1:20" ht="31.8">
       <c r="A139" s="3" t="s">
         <v>148</v>
       </c>
@@ -8595,7 +8595,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20" ht="33.75">
+    <row r="140" spans="1:20" ht="31.8">
       <c r="A140" s="3" t="s">
         <v>149</v>
       </c>
@@ -8639,7 +8639,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20" ht="33.75">
+    <row r="141" spans="1:20" ht="31.8">
       <c r="A141" s="3" t="s">
         <v>150</v>
       </c>
@@ -8683,7 +8683,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20" ht="33.75">
+    <row r="142" spans="1:20" ht="31.8">
       <c r="A142" s="3" t="s">
         <v>151</v>
       </c>
@@ -8727,7 +8727,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20" ht="33.75">
+    <row r="143" spans="1:20" ht="31.8">
       <c r="A143" s="3" t="s">
         <v>152</v>
       </c>
@@ -8771,7 +8771,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20" ht="33.75">
+    <row r="144" spans="1:20" ht="31.8">
       <c r="A144" s="3" t="s">
         <v>153</v>
       </c>
@@ -8815,7 +8815,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145" spans="1:20" ht="33.75">
+    <row r="145" spans="1:20" ht="31.8">
       <c r="A145" s="3" t="s">
         <v>154</v>
       </c>
@@ -8859,7 +8859,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146" spans="1:20" ht="33.75">
+    <row r="146" spans="1:20" ht="31.8">
       <c r="A146" s="3" t="s">
         <v>155</v>
       </c>
@@ -8903,7 +8903,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147" spans="1:20" ht="33.75">
+    <row r="147" spans="1:20" ht="31.8">
       <c r="A147" s="3" t="s">
         <v>156</v>
       </c>
@@ -8947,7 +8947,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148" spans="1:20" ht="33.75">
+    <row r="148" spans="1:20" ht="31.8">
       <c r="A148" s="3" t="s">
         <v>157</v>
       </c>
@@ -8991,7 +8991,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149" spans="1:20" ht="33.75">
+    <row r="149" spans="1:20" ht="31.8">
       <c r="A149" s="3" t="s">
         <v>158</v>
       </c>
@@ -9035,7 +9035,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150" spans="1:20" ht="33.75">
+    <row r="150" spans="1:20" ht="31.8">
       <c r="A150" s="3" t="s">
         <v>159</v>
       </c>
@@ -9079,7 +9079,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151" spans="1:20" ht="33.75">
+    <row r="151" spans="1:20" ht="31.8">
       <c r="A151" s="3" t="s">
         <v>160</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="33.75">
+    <row r="152" spans="1:20" ht="31.8">
       <c r="A152" s="3" t="s">
         <v>161</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="33.75">
+    <row r="153" spans="1:20" ht="31.8">
       <c r="A153" s="3" t="s">
         <v>162</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="33.75">
+    <row r="154" spans="1:20" ht="31.8">
       <c r="A154" s="3" t="s">
         <v>163</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="33.75">
+    <row r="155" spans="1:20" ht="31.8">
       <c r="A155" s="3" t="s">
         <v>164</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="33.75">
+    <row r="156" spans="1:20" ht="31.8">
       <c r="A156" s="3" t="s">
         <v>165</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="33.75">
+    <row r="157" spans="1:20" ht="31.8">
       <c r="A157" s="3" t="s">
         <v>166</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="33.75">
+    <row r="158" spans="1:20" ht="31.8">
       <c r="A158" s="3" t="s">
         <v>167</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="33.75">
+    <row r="159" spans="1:20" ht="31.8">
       <c r="A159" s="5" t="s">
         <v>168</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="33.75">
+    <row r="160" spans="1:20" ht="31.8">
       <c r="A160" s="3" t="s">
         <v>169</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="33.75">
+    <row r="161" spans="1:11" ht="31.8">
       <c r="A161" s="3" t="s">
         <v>170</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="33.75">
+    <row r="162" spans="1:11" ht="31.8">
       <c r="A162" s="3" t="s">
         <v>171</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="33.75">
+    <row r="163" spans="1:11" ht="31.8">
       <c r="A163" s="3" t="s">
         <v>172</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="33.75">
+    <row r="164" spans="1:11" ht="31.8">
       <c r="A164" s="3" t="s">
         <v>173</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="33.75">
+    <row r="165" spans="1:11" ht="31.8">
       <c r="A165" s="3" t="s">
         <v>174</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="33.75">
+    <row r="166" spans="1:11" ht="31.8">
       <c r="A166" s="3" t="s">
         <v>175</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="33.75">
+    <row r="167" spans="1:11" ht="31.8">
       <c r="A167" s="3" t="s">
         <v>176</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="33.75">
+    <row r="168" spans="1:11" ht="31.8">
       <c r="A168" s="3" t="s">
         <v>177</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="33.75">
+    <row r="169" spans="1:11" ht="31.8">
       <c r="A169" s="3" t="s">
         <v>178</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="33.75">
+    <row r="170" spans="1:11" ht="31.8">
       <c r="A170" s="3" t="s">
         <v>179</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="33.75">
+    <row r="171" spans="1:11" ht="31.8">
       <c r="A171" s="3" t="s">
         <v>180</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="33.75">
+    <row r="172" spans="1:11" ht="31.8">
       <c r="A172" s="3" t="s">
         <v>181</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="33.75">
+    <row r="173" spans="1:11" ht="31.8">
       <c r="A173" s="3" t="s">
         <v>182</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="33.75">
+    <row r="174" spans="1:11" ht="31.8">
       <c r="A174" s="3" t="s">
         <v>183</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="33.75">
+    <row r="175" spans="1:11" ht="31.8">
       <c r="A175" s="3" t="s">
         <v>184</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="33.75">
+    <row r="176" spans="1:11" ht="31.8">
       <c r="A176" s="3" t="s">
         <v>185</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="33.75">
+    <row r="177" spans="1:11" ht="31.8">
       <c r="A177" s="3" t="s">
         <v>186</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="33.75">
+    <row r="178" spans="1:11" ht="31.8">
       <c r="A178" s="3" t="s">
         <v>187</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="33.75">
+    <row r="179" spans="1:11" ht="31.8">
       <c r="A179" s="3" t="s">
         <v>188</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="33.75">
+    <row r="180" spans="1:11" ht="31.8">
       <c r="A180" s="3" t="s">
         <v>189</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="33.75">
+    <row r="181" spans="1:11" ht="31.8">
       <c r="A181" s="3" t="s">
         <v>190</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="33.75">
+    <row r="182" spans="1:11" ht="31.8">
       <c r="A182" s="3" t="s">
         <v>191</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="33.75">
+    <row r="183" spans="1:11" ht="31.8">
       <c r="A183" s="3" t="s">
         <v>192</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="33.75">
+    <row r="184" spans="1:11" ht="31.8">
       <c r="A184" s="3" t="s">
         <v>193</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="33.75">
+    <row r="185" spans="1:11" ht="31.8">
       <c r="A185" s="3" t="s">
         <v>194</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="33.75">
+    <row r="186" spans="1:11" ht="31.8">
       <c r="A186" s="3" t="s">
         <v>195</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="33.75">
+    <row r="187" spans="1:11" ht="31.8">
       <c r="A187" s="3" t="s">
         <v>196</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="33.75">
+    <row r="188" spans="1:11" ht="31.8">
       <c r="A188" s="3" t="s">
         <v>197</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="33.75">
+    <row r="189" spans="1:11" ht="31.8">
       <c r="A189" s="3" t="s">
         <v>198</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="33.75">
+    <row r="190" spans="1:11" ht="31.8">
       <c r="A190" s="3" t="s">
         <v>199</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="33.75">
+    <row r="191" spans="1:11" ht="31.8">
       <c r="A191" s="3" t="s">
         <v>200</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="33.75">
+    <row r="192" spans="1:11" ht="31.8">
       <c r="A192" s="3" t="s">
         <v>201</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="33.75">
+    <row r="193" spans="1:11" ht="31.8">
       <c r="A193" s="3" t="s">
         <v>202</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="33.75">
+    <row r="194" spans="1:11" ht="31.8">
       <c r="A194" s="3" t="s">
         <v>203</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="33.75">
+    <row r="195" spans="1:11" ht="31.8">
       <c r="A195" s="3" t="s">
         <v>204</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="33.75">
+    <row r="196" spans="1:11" ht="31.8">
       <c r="A196" s="3" t="s">
         <v>205</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="33.75">
+    <row r="197" spans="1:11" ht="31.8">
       <c r="A197" s="3" t="s">
         <v>206</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="33.75">
+    <row r="198" spans="1:11" ht="31.8">
       <c r="A198" s="3" t="s">
         <v>207</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="33.75">
+    <row r="199" spans="1:11" ht="31.8">
       <c r="A199" s="3" t="s">
         <v>208</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="33.75">
+    <row r="200" spans="1:11" ht="31.8">
       <c r="A200" s="3" t="s">
         <v>209</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="33.75">
+    <row r="201" spans="1:11" ht="31.8">
       <c r="A201" s="3" t="s">
         <v>210</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="33.75">
+    <row r="202" spans="1:11" ht="31.8">
       <c r="A202" s="3" t="s">
         <v>211</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="33.75">
+    <row r="203" spans="1:11" ht="31.8">
       <c r="A203" s="3" t="s">
         <v>212</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="33.75">
+    <row r="204" spans="1:11" ht="31.8">
       <c r="A204" s="3" t="s">
         <v>213</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="33.75">
+    <row r="205" spans="1:11" ht="31.8">
       <c r="A205" s="3" t="s">
         <v>214</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="33.75">
+    <row r="206" spans="1:11" ht="31.8">
       <c r="A206" s="3" t="s">
         <v>215</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="33.75">
+    <row r="207" spans="1:11" ht="31.8">
       <c r="A207" s="3" t="s">
         <v>216</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="33.75">
+    <row r="208" spans="1:11" ht="31.8">
       <c r="A208" s="3" t="s">
         <v>217</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="33.75">
+    <row r="209" spans="1:11" ht="31.8">
       <c r="A209" s="3" t="s">
         <v>218</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="33.75">
+    <row r="210" spans="1:11" ht="31.8">
       <c r="A210" s="3" t="s">
         <v>219</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="33.75">
+    <row r="211" spans="1:11" ht="31.8">
       <c r="A211" s="3" t="s">
         <v>220</v>
       </c>
@@ -11214,7 +11214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="33.75">
+    <row r="212" spans="1:11" ht="31.8">
       <c r="A212" s="3" t="s">
         <v>221</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="33.75">
+    <row r="213" spans="1:11" ht="31.8">
       <c r="A213" s="3" t="s">
         <v>222</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="33.75">
+    <row r="214" spans="1:11" ht="31.8">
       <c r="A214" s="3" t="s">
         <v>223</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="33.75">
+    <row r="215" spans="1:11" ht="31.8">
       <c r="A215" s="3" t="s">
         <v>224</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="33.75">
+    <row r="216" spans="1:11" ht="31.8">
       <c r="A216" s="5" t="s">
         <v>225</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="33.75">
+    <row r="217" spans="1:11" ht="31.8">
       <c r="A217" s="3" t="s">
         <v>226</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="33.75">
+    <row r="218" spans="1:11" ht="31.8">
       <c r="A218" s="3" t="s">
         <v>227</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="33.75">
+    <row r="219" spans="1:11" ht="31.8">
       <c r="A219" s="3" t="s">
         <v>228</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="33.75">
+    <row r="220" spans="1:11" ht="31.8">
       <c r="A220" s="3" t="s">
         <v>229</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="33.75">
+    <row r="221" spans="1:11" ht="31.8">
       <c r="A221" s="3" t="s">
         <v>230</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="33.75">
+    <row r="222" spans="1:11" ht="31.8">
       <c r="A222" s="3" t="s">
         <v>231</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="33.75">
+    <row r="223" spans="1:11" ht="31.8">
       <c r="A223" s="3" t="s">
         <v>232</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="33.75">
+    <row r="224" spans="1:11" ht="31.8">
       <c r="A224" s="3" t="s">
         <v>233</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="33.75">
+    <row r="225" spans="1:11" ht="31.8">
       <c r="A225" s="3" t="s">
         <v>234</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="33.75">
+    <row r="226" spans="1:11" ht="31.8">
       <c r="A226" s="3" t="s">
         <v>235</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="33.75">
+    <row r="227" spans="1:11" ht="31.8">
       <c r="A227" s="3" t="s">
         <v>236</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="33.75">
+    <row r="228" spans="1:11" ht="31.8">
       <c r="A228" s="3" t="s">
         <v>237</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="33.75">
+    <row r="229" spans="1:11" ht="31.8">
       <c r="A229" s="3" t="s">
         <v>238</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="33.75">
+    <row r="230" spans="1:11" ht="31.8">
       <c r="A230" s="3" t="s">
         <v>239</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="33.75">
+    <row r="231" spans="1:11" ht="31.8">
       <c r="A231" s="3" t="s">
         <v>240</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="33.75">
+    <row r="232" spans="1:11" ht="31.8">
       <c r="A232" s="5" t="s">
         <v>241</v>
       </c>
@@ -11949,7 +11949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="33.75">
+    <row r="233" spans="1:11" ht="31.8">
       <c r="A233" s="3" t="s">
         <v>242</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="33.75">
+    <row r="234" spans="1:11" ht="31.8">
       <c r="A234" s="3" t="s">
         <v>243</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="33.75">
+    <row r="235" spans="1:11" ht="31.8">
       <c r="A235" s="3" t="s">
         <v>244</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="33.75">
+    <row r="236" spans="1:11" ht="31.8">
       <c r="A236" s="3" t="s">
         <v>245</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="33.75">
+    <row r="237" spans="1:11" ht="31.8">
       <c r="A237" s="3" t="s">
         <v>246</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="33.75">
+    <row r="238" spans="1:11" ht="31.8">
       <c r="A238" s="3" t="s">
         <v>247</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="33.75">
+    <row r="239" spans="1:11" ht="31.8">
       <c r="A239" s="3" t="s">
         <v>248</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="33.75">
+    <row r="240" spans="1:11" ht="31.8">
       <c r="A240" s="3" t="s">
         <v>249</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="33.75">
+    <row r="241" spans="1:11" ht="31.8">
       <c r="A241" s="3" t="s">
         <v>250</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="33.75">
+    <row r="242" spans="1:11" ht="31.8">
       <c r="A242" s="3" t="s">
         <v>251</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="33.75">
+    <row r="243" spans="1:11" ht="31.8">
       <c r="A243" s="3" t="s">
         <v>252</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="33.75">
+    <row r="244" spans="1:11" ht="31.8">
       <c r="A244" s="3" t="s">
         <v>253</v>
       </c>
@@ -12369,7 +12369,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="33.75">
+    <row r="245" spans="1:11" ht="31.8">
       <c r="A245" s="3" t="s">
         <v>254</v>
       </c>
@@ -12404,7 +12404,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="33.75">
+    <row r="246" spans="1:11" ht="31.8">
       <c r="A246" s="3" t="s">
         <v>255</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="33.75">
+    <row r="247" spans="1:11" ht="31.8">
       <c r="A247" s="3" t="s">
         <v>256</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="33.75">
+    <row r="248" spans="1:11" ht="31.8">
       <c r="A248" s="3" t="s">
         <v>257</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="33.75">
+    <row r="249" spans="1:11" ht="31.8">
       <c r="A249" s="3" t="s">
         <v>258</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="33.75">
+    <row r="250" spans="1:11" ht="31.8">
       <c r="A250" s="3" t="s">
         <v>259</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="33.75">
+    <row r="251" spans="1:11" ht="31.8">
       <c r="A251" s="3" t="s">
         <v>260</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="33.75">
+    <row r="252" spans="1:11" ht="31.8">
       <c r="A252" s="3" t="s">
         <v>261</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="33.75">
+    <row r="253" spans="1:11" ht="31.8">
       <c r="A253" s="3" t="s">
         <v>262</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="33.75">
+    <row r="254" spans="1:11" ht="31.8">
       <c r="A254" s="3" t="s">
         <v>263</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="33.75">
+    <row r="255" spans="1:11" ht="31.8">
       <c r="A255" s="3" t="s">
         <v>264</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="33.75">
+    <row r="256" spans="1:11" ht="31.8">
       <c r="A256" s="3" t="s">
         <v>265</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="33.75">
+    <row r="257" spans="1:11" ht="31.8">
       <c r="A257" s="3" t="s">
         <v>266</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="33.75">
+    <row r="258" spans="1:11" ht="31.8">
       <c r="A258" s="3" t="s">
         <v>267</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="33.75">
+    <row r="259" spans="1:11" ht="31.8">
       <c r="A259" s="3" t="s">
         <v>268</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="33.75">
+    <row r="260" spans="1:11" ht="31.8">
       <c r="A260" s="3" t="s">
         <v>269</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="33.75">
+    <row r="261" spans="1:11" ht="31.8">
       <c r="A261" s="3" t="s">
         <v>270</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="33.75">
+    <row r="262" spans="1:11" ht="31.8">
       <c r="A262" s="3" t="s">
         <v>271</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="33.75">
+    <row r="263" spans="1:11" ht="31.8">
       <c r="A263" s="3" t="s">
         <v>272</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="33.75">
+    <row r="264" spans="1:11" ht="31.8">
       <c r="A264" s="3" t="s">
         <v>273</v>
       </c>
@@ -13069,7 +13069,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="33.75">
+    <row r="265" spans="1:11" ht="31.8">
       <c r="A265" s="3" t="s">
         <v>274</v>
       </c>
@@ -13104,7 +13104,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="33.75">
+    <row r="266" spans="1:11" ht="31.8">
       <c r="A266" s="3" t="s">
         <v>275</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="33.75">
+    <row r="267" spans="1:11" ht="31.8">
       <c r="A267" s="3" t="s">
         <v>276</v>
       </c>
@@ -13174,7 +13174,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="33.75">
+    <row r="268" spans="1:11" ht="31.8">
       <c r="A268" s="3" t="s">
         <v>277</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="33.75">
+    <row r="269" spans="1:11" ht="31.8">
       <c r="A269" s="3" t="s">
         <v>278</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="33.75">
+    <row r="270" spans="1:11" ht="31.8">
       <c r="A270" s="3" t="s">
         <v>279</v>
       </c>
@@ -13279,7 +13279,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="33.75">
+    <row r="271" spans="1:11" ht="31.8">
       <c r="A271" s="5" t="s">
         <v>280</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="33.75">
+    <row r="272" spans="1:11" ht="31.8">
       <c r="A272" s="3" t="s">
         <v>281</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="33.75">
+    <row r="273" spans="1:11" ht="31.8">
       <c r="A273" s="3" t="s">
         <v>282</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="33.75">
+    <row r="274" spans="1:11" ht="31.8">
       <c r="A274" s="3" t="s">
         <v>283</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="33.75">
+    <row r="275" spans="1:11" ht="31.8">
       <c r="A275" s="3" t="s">
         <v>284</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="33.75">
+    <row r="276" spans="1:11" ht="31.8">
       <c r="A276" s="3" t="s">
         <v>285</v>
       </c>
@@ -13489,7 +13489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="33.75">
+    <row r="277" spans="1:11" ht="31.8">
       <c r="A277" s="3" t="s">
         <v>286</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="33.75">
+    <row r="278" spans="1:11" ht="31.8">
       <c r="A278" s="3" t="s">
         <v>287</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="33.75">
+    <row r="279" spans="1:11" ht="31.8">
       <c r="A279" s="3" t="s">
         <v>288</v>
       </c>
@@ -13594,7 +13594,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="33.75">
+    <row r="280" spans="1:11" ht="31.8">
       <c r="A280" s="3" t="s">
         <v>289</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="33.75">
+    <row r="281" spans="1:11" ht="31.8">
       <c r="A281" s="3" t="s">
         <v>290</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="33.75">
+    <row r="282" spans="1:11" ht="31.8">
       <c r="A282" s="3" t="s">
         <v>291</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="33.75">
+    <row r="283" spans="1:11" ht="31.8">
       <c r="A283" s="3" t="s">
         <v>292</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="33.75">
+    <row r="284" spans="1:11" ht="31.8">
       <c r="A284" s="3" t="s">
         <v>293</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="33.75">
+    <row r="285" spans="1:11" ht="31.8">
       <c r="A285" s="3" t="s">
         <v>294</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="33.75">
+    <row r="286" spans="1:11" ht="31.8">
       <c r="A286" s="3" t="s">
         <v>295</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="33.75">
+    <row r="287" spans="1:11" ht="31.8">
       <c r="A287" s="3" t="s">
         <v>296</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="33.75">
+    <row r="288" spans="1:11" ht="31.8">
       <c r="A288" s="3" t="s">
         <v>297</v>
       </c>
@@ -13909,7 +13909,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="33.75">
+    <row r="289" spans="1:11" ht="31.8">
       <c r="A289" s="3" t="s">
         <v>298</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="33.75">
+    <row r="290" spans="1:11" ht="31.8">
       <c r="A290" s="3" t="s">
         <v>299</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="33.75">
+    <row r="291" spans="1:11" ht="31.8">
       <c r="A291" s="3" t="s">
         <v>300</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="33.75">
+    <row r="292" spans="1:11" ht="31.8">
       <c r="A292" s="5" t="s">
         <v>301</v>
       </c>
@@ -14049,7 +14049,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="33.75">
+    <row r="293" spans="1:11" ht="31.8">
       <c r="A293" s="3" t="s">
         <v>302</v>
       </c>
@@ -14084,7 +14084,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="33.75">
+    <row r="294" spans="1:11" ht="31.8">
       <c r="A294" s="3" t="s">
         <v>303</v>
       </c>
@@ -14119,7 +14119,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="33.75">
+    <row r="295" spans="1:11" ht="31.8">
       <c r="A295" s="3" t="s">
         <v>304</v>
       </c>
@@ -14154,7 +14154,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="33.75">
+    <row r="296" spans="1:11" ht="31.8">
       <c r="A296" s="3" t="s">
         <v>305</v>
       </c>
@@ -14189,7 +14189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="33.75">
+    <row r="297" spans="1:11" ht="31.8">
       <c r="A297" s="3" t="s">
         <v>306</v>
       </c>
@@ -14224,7 +14224,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="33.75">
+    <row r="298" spans="1:11" ht="31.8">
       <c r="A298" s="3" t="s">
         <v>307</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="33.75">
+    <row r="299" spans="1:11" ht="31.8">
       <c r="A299" s="3" t="s">
         <v>308</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="33.75">
+    <row r="300" spans="1:11" ht="31.8">
       <c r="A300" s="3" t="s">
         <v>309</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="33.75">
+    <row r="301" spans="1:11" ht="31.8">
       <c r="A301" s="3" t="s">
         <v>310</v>
       </c>
@@ -14364,7 +14364,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="33.75">
+    <row r="302" spans="1:11" ht="31.8">
       <c r="A302" s="3" t="s">
         <v>311</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="33.75">
+    <row r="303" spans="1:11" ht="31.8">
       <c r="A303" s="3" t="s">
         <v>312</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="33.75">
+    <row r="304" spans="1:11" ht="31.8">
       <c r="A304" s="3" t="s">
         <v>313</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="33.75">
+    <row r="305" spans="1:11" ht="31.8">
       <c r="A305" s="3" t="s">
         <v>314</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="33.75">
+    <row r="306" spans="1:11" ht="31.8">
       <c r="A306" s="3" t="s">
         <v>315</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="33.75">
+    <row r="307" spans="1:11" ht="31.8">
       <c r="A307" s="3" t="s">
         <v>316</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="33.75">
+    <row r="308" spans="1:11" ht="31.8">
       <c r="A308" s="3" t="s">
         <v>317</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="33.75">
+    <row r="309" spans="1:11" ht="31.8">
       <c r="A309" s="3" t="s">
         <v>318</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="33.75">
+    <row r="310" spans="1:11" ht="31.8">
       <c r="A310" s="3" t="s">
         <v>319</v>
       </c>
@@ -14679,7 +14679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="33.75">
+    <row r="311" spans="1:11" ht="31.8">
       <c r="A311" s="3" t="s">
         <v>320</v>
       </c>
@@ -14714,7 +14714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="33.75">
+    <row r="312" spans="1:11" ht="31.8">
       <c r="A312" s="3" t="s">
         <v>321</v>
       </c>
@@ -14749,7 +14749,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="33.75">
+    <row r="313" spans="1:11" ht="31.8">
       <c r="A313" s="3" t="s">
         <v>322</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="33.75">
+    <row r="314" spans="1:11" ht="31.8">
       <c r="A314" s="3" t="s">
         <v>323</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="33.75">
+    <row r="315" spans="1:11" ht="31.8">
       <c r="A315" s="3" t="s">
         <v>324</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="33.75">
+    <row r="316" spans="1:11" ht="31.8">
       <c r="A316" s="3" t="s">
         <v>325</v>
       </c>
@@ -14889,7 +14889,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="33.75">
+    <row r="317" spans="1:11" ht="31.8">
       <c r="A317" s="3" t="s">
         <v>326</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="33.75">
+    <row r="318" spans="1:11" ht="31.8">
       <c r="A318" s="3" t="s">
         <v>327</v>
       </c>
@@ -14959,7 +14959,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="33.75">
+    <row r="319" spans="1:11" ht="31.8">
       <c r="A319" s="3" t="s">
         <v>328</v>
       </c>
@@ -14994,7 +14994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="33.75">
+    <row r="320" spans="1:11" ht="31.8">
       <c r="A320" s="3" t="s">
         <v>329</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="33.75">
+    <row r="321" spans="1:11" ht="31.8">
       <c r="A321" s="3" t="s">
         <v>330</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="33.75">
+    <row r="322" spans="1:11" ht="31.8">
       <c r="A322" s="3" t="s">
         <v>331</v>
       </c>
@@ -15099,7 +15099,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="33.75">
+    <row r="323" spans="1:11" ht="31.8">
       <c r="A323" s="3" t="s">
         <v>332</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="33.75">
+    <row r="324" spans="1:11" ht="31.8">
       <c r="A324" s="3" t="s">
         <v>333</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="325" spans="1:11" ht="33.75">
+    <row r="325" spans="1:11" ht="31.8">
       <c r="A325" s="3" t="s">
         <v>334</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="326" spans="1:11" ht="33.75">
+    <row r="326" spans="1:11" ht="31.8">
       <c r="A326" s="3" t="s">
         <v>335</v>
       </c>
@@ -15239,7 +15239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="33.75">
+    <row r="327" spans="1:11" ht="31.8">
       <c r="A327" s="3" t="s">
         <v>336</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="33.75">
+    <row r="328" spans="1:11" ht="31.8">
       <c r="A328" s="3" t="s">
         <v>337</v>
       </c>
@@ -15309,7 +15309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="33.75">
+    <row r="329" spans="1:11" ht="31.8">
       <c r="A329" s="3" t="s">
         <v>338</v>
       </c>
@@ -15344,7 +15344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="33.75">
+    <row r="330" spans="1:11" ht="31.8">
       <c r="A330" s="3" t="s">
         <v>339</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="33.75">
+    <row r="331" spans="1:11" ht="31.8">
       <c r="A331" s="3" t="s">
         <v>340</v>
       </c>
@@ -15414,7 +15414,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="33.75">
+    <row r="332" spans="1:11" ht="31.8">
       <c r="A332" s="3" t="s">
         <v>341</v>
       </c>
@@ -15449,7 +15449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="33.75">
+    <row r="333" spans="1:11" ht="31.8">
       <c r="A333" s="3" t="s">
         <v>342</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="33.75">
+    <row r="334" spans="1:11" ht="31.8">
       <c r="A334" s="3" t="s">
         <v>343</v>
       </c>
@@ -15519,7 +15519,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="33.75">
+    <row r="335" spans="1:11" ht="31.8">
       <c r="A335" s="3" t="s">
         <v>344</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="33.75">
+    <row r="336" spans="1:11" ht="31.8">
       <c r="A336" s="3" t="s">
         <v>345</v>
       </c>
@@ -15589,7 +15589,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="33.75">
+    <row r="337" spans="1:11" ht="31.8">
       <c r="A337" s="3" t="s">
         <v>346</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="33.75">
+    <row r="338" spans="1:11" ht="31.8">
       <c r="A338" s="3" t="s">
         <v>347</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="33.75">
+    <row r="339" spans="1:11" ht="31.8">
       <c r="A339" s="3" t="s">
         <v>348</v>
       </c>
@@ -15694,7 +15694,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="33.75">
+    <row r="340" spans="1:11" ht="31.8">
       <c r="A340" s="5" t="s">
         <v>349</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="33.75">
+    <row r="341" spans="1:11" ht="31.8">
       <c r="A341" s="3" t="s">
         <v>350</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="33.75">
+    <row r="342" spans="1:11" ht="31.8">
       <c r="A342" s="3" t="s">
         <v>351</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="33.75">
+    <row r="343" spans="1:11" ht="31.8">
       <c r="A343" s="3" t="s">
         <v>352</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="33.75">
+    <row r="344" spans="1:11" ht="31.8">
       <c r="A344" s="3" t="s">
         <v>353</v>
       </c>
@@ -15869,7 +15869,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="33.75">
+    <row r="345" spans="1:11" ht="31.8">
       <c r="A345" s="3" t="s">
         <v>354</v>
       </c>
@@ -15904,7 +15904,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="33.75">
+    <row r="346" spans="1:11" ht="31.8">
       <c r="A346" s="3" t="s">
         <v>355</v>
       </c>
@@ -15939,7 +15939,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="33.75">
+    <row r="347" spans="1:11" ht="31.8">
       <c r="A347" s="5" t="s">
         <v>356</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="33.75">
+    <row r="348" spans="1:11" ht="31.8">
       <c r="A348" s="3" t="s">
         <v>357</v>
       </c>
@@ -16009,7 +16009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="33.75">
+    <row r="349" spans="1:11" ht="31.8">
       <c r="A349" s="3" t="s">
         <v>358</v>
       </c>
@@ -16044,7 +16044,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="33.75">
+    <row r="350" spans="1:11" ht="31.8">
       <c r="A350" s="3" t="s">
         <v>359</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="33.75">
+    <row r="351" spans="1:11" ht="31.8">
       <c r="A351" s="3" t="s">
         <v>360</v>
       </c>
@@ -16114,7 +16114,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="352" spans="1:11" ht="33.75">
+    <row r="352" spans="1:11" ht="31.8">
       <c r="A352" s="3" t="s">
         <v>361</v>
       </c>
@@ -16149,7 +16149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="353" spans="1:11" ht="33.75">
+    <row r="353" spans="1:11" ht="31.8">
       <c r="A353" s="3" t="s">
         <v>362</v>
       </c>
@@ -16184,7 +16184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="33.75">
+    <row r="354" spans="1:11" ht="31.8">
       <c r="A354" s="3" t="s">
         <v>363</v>
       </c>
@@ -16219,7 +16219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="33.75">
+    <row r="355" spans="1:11" ht="31.8">
       <c r="A355" s="3" t="s">
         <v>364</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="356" spans="1:11" ht="33.75">
+    <row r="356" spans="1:11" ht="31.8">
       <c r="A356" s="5" t="s">
         <v>365</v>
       </c>
@@ -16289,7 +16289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="357" spans="1:11" ht="33.75">
+    <row r="357" spans="1:11" ht="31.8">
       <c r="A357" s="3" t="s">
         <v>366</v>
       </c>
@@ -16324,7 +16324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="33.75">
+    <row r="358" spans="1:11" ht="31.8">
       <c r="A358" s="3" t="s">
         <v>367</v>
       </c>
@@ -16359,7 +16359,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="359" spans="1:11" ht="33.75">
+    <row r="359" spans="1:11" ht="31.8">
       <c r="A359" s="3" t="s">
         <v>368</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="33.75">
+    <row r="360" spans="1:11" ht="31.8">
       <c r="A360" s="3" t="s">
         <v>369</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="33.75">
+    <row r="361" spans="1:11" ht="31.8">
       <c r="A361" s="3" t="s">
         <v>370</v>
       </c>
@@ -16464,7 +16464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="33.75">
+    <row r="362" spans="1:11" ht="31.8">
       <c r="A362" s="3" t="s">
         <v>371</v>
       </c>
@@ -16499,7 +16499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="33.75">
+    <row r="363" spans="1:11" ht="31.8">
       <c r="A363" s="3" t="s">
         <v>372</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="33.75">
+    <row r="364" spans="1:11" ht="31.8">
       <c r="A364" s="3" t="s">
         <v>373</v>
       </c>
@@ -16569,7 +16569,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="365" spans="1:11" ht="33.75">
+    <row r="365" spans="1:11" ht="31.8">
       <c r="A365" s="3" t="s">
         <v>374</v>
       </c>
@@ -16604,7 +16604,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="366" spans="1:11" ht="33.75">
+    <row r="366" spans="1:11" ht="31.8">
       <c r="A366" s="3" t="s">
         <v>375</v>
       </c>
@@ -16639,7 +16639,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="33.75">
+    <row r="367" spans="1:11" ht="31.8">
       <c r="A367" s="3" t="s">
         <v>376</v>
       </c>
@@ -16674,7 +16674,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="33.75">
+    <row r="368" spans="1:11" ht="31.8">
       <c r="A368" s="3" t="s">
         <v>377</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="369" spans="1:11" ht="33.75">
+    <row r="369" spans="1:11" ht="31.8">
       <c r="A369" s="3" t="s">
         <v>378</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="370" spans="1:11" ht="33.75">
+    <row r="370" spans="1:11" ht="31.8">
       <c r="A370" s="3" t="s">
         <v>379</v>
       </c>
@@ -16779,7 +16779,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="33.75">
+    <row r="371" spans="1:11" ht="31.8">
       <c r="A371" s="3" t="s">
         <v>380</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="33.75">
+    <row r="372" spans="1:11" ht="31.8">
       <c r="A372" s="3" t="s">
         <v>381</v>
       </c>
@@ -16849,7 +16849,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="373" spans="1:11" ht="33.75">
+    <row r="373" spans="1:11" ht="31.8">
       <c r="A373" s="3" t="s">
         <v>382</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="374" spans="1:11" ht="33.75">
+    <row r="374" spans="1:11" ht="31.8">
       <c r="A374" s="3" t="s">
         <v>383</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="33.75">
+    <row r="375" spans="1:11" ht="31.8">
       <c r="A375" s="3" t="s">
         <v>384</v>
       </c>
@@ -16954,7 +16954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:11" ht="33.75">
+    <row r="376" spans="1:11" ht="31.8">
       <c r="A376" s="5" t="s">
         <v>385</v>
       </c>
@@ -16989,7 +16989,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="377" spans="1:11" ht="33.75">
+    <row r="377" spans="1:11" ht="31.8">
       <c r="A377" s="3" t="s">
         <v>386</v>
       </c>
@@ -17024,7 +17024,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="378" spans="1:11" ht="33.75">
+    <row r="378" spans="1:11" ht="31.8">
       <c r="A378" s="3" t="s">
         <v>387</v>
       </c>
@@ -17059,7 +17059,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="379" spans="1:11" ht="33.75">
+    <row r="379" spans="1:11" ht="31.8">
       <c r="A379" s="3" t="s">
         <v>388</v>
       </c>
@@ -17094,7 +17094,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="380" spans="1:11" ht="33.75">
+    <row r="380" spans="1:11" ht="31.8">
       <c r="A380" s="5" t="s">
         <v>389</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="381" spans="1:11" ht="33.75">
+    <row r="381" spans="1:11" ht="31.8">
       <c r="A381" s="3" t="s">
         <v>390</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="1:11" ht="33.75">
+    <row r="382" spans="1:11" ht="31.8">
       <c r="A382" s="3" t="s">
         <v>391</v>
       </c>
@@ -17199,7 +17199,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="383" spans="1:11" ht="33.75">
+    <row r="383" spans="1:11" ht="31.8">
       <c r="A383" s="3" t="s">
         <v>392</v>
       </c>
@@ -17234,7 +17234,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="384" spans="1:11" ht="33.75">
+    <row r="384" spans="1:11" ht="31.8">
       <c r="A384" s="3" t="s">
         <v>393</v>
       </c>
@@ -17269,7 +17269,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="33.75">
+    <row r="385" spans="1:11" ht="31.8">
       <c r="A385" s="3" t="s">
         <v>394</v>
       </c>
@@ -17304,7 +17304,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="386" spans="1:11" ht="33.75">
+    <row r="386" spans="1:11" ht="31.8">
       <c r="A386" s="3" t="s">
         <v>395</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="33.75">
+    <row r="387" spans="1:11" ht="31.8">
       <c r="A387" s="3" t="s">
         <v>396</v>
       </c>
@@ -17374,7 +17374,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="388" spans="1:11" ht="33.75">
+    <row r="388" spans="1:11" ht="31.8">
       <c r="A388" s="3" t="s">
         <v>397</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="389" spans="1:11" ht="33.75">
+    <row r="389" spans="1:11" ht="31.8">
       <c r="A389" s="3" t="s">
         <v>398</v>
       </c>
@@ -17444,7 +17444,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="390" spans="1:11" ht="33.75">
+    <row r="390" spans="1:11" ht="31.8">
       <c r="A390" s="3" t="s">
         <v>399</v>
       </c>
@@ -17479,7 +17479,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="33.75">
+    <row r="391" spans="1:11" ht="31.8">
       <c r="A391" s="3" t="s">
         <v>400</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="33.75">
+    <row r="392" spans="1:11" ht="31.8">
       <c r="A392" s="3" t="s">
         <v>401</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="33.75">
+    <row r="393" spans="1:11" ht="31.8">
       <c r="A393" s="3" t="s">
         <v>402</v>
       </c>
@@ -17584,7 +17584,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="394" spans="1:11" ht="33.75">
+    <row r="394" spans="1:11" ht="31.8">
       <c r="A394" s="3" t="s">
         <v>403</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="395" spans="1:11" ht="33.75">
+    <row r="395" spans="1:11" ht="31.8">
       <c r="A395" s="3" t="s">
         <v>404</v>
       </c>
@@ -17654,7 +17654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:11" ht="33.75">
+    <row r="396" spans="1:11" ht="31.8">
       <c r="A396" s="3" t="s">
         <v>405</v>
       </c>
@@ -17689,7 +17689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:11" ht="33.75">
+    <row r="397" spans="1:11" ht="31.8">
       <c r="A397" s="3" t="s">
         <v>406</v>
       </c>
@@ -17724,7 +17724,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="398" spans="1:11" ht="33.75">
+    <row r="398" spans="1:11" ht="31.8">
       <c r="A398" s="3" t="s">
         <v>407</v>
       </c>
@@ -17759,7 +17759,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="399" spans="1:11" ht="33.75">
+    <row r="399" spans="1:11" ht="31.8">
       <c r="A399" s="3" t="s">
         <v>408</v>
       </c>
@@ -17794,7 +17794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="400" spans="1:11" ht="33.75">
+    <row r="400" spans="1:11" ht="31.8">
       <c r="A400" s="3" t="s">
         <v>409</v>
       </c>
@@ -17829,7 +17829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="33.75">
+    <row r="401" spans="1:11" ht="31.8">
       <c r="A401" s="3" t="s">
         <v>410</v>
       </c>
@@ -17864,7 +17864,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="402" spans="1:11" ht="33.75">
+    <row r="402" spans="1:11" ht="31.8">
       <c r="A402" s="3" t="s">
         <v>411</v>
       </c>
@@ -17899,7 +17899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:11" ht="33.75">
+    <row r="403" spans="1:11" ht="31.8">
       <c r="A403" s="3" t="s">
         <v>412</v>
       </c>
@@ -17934,7 +17934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="33.75">
+    <row r="404" spans="1:11" ht="31.8">
       <c r="A404" s="3" t="s">
         <v>413</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="405" spans="1:11" ht="33.75">
+    <row r="405" spans="1:11" ht="31.8">
       <c r="A405" s="3" t="s">
         <v>414</v>
       </c>
@@ -18004,7 +18004,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="33.75">
+    <row r="406" spans="1:11" ht="31.8">
       <c r="A406" s="3" t="s">
         <v>415</v>
       </c>
@@ -18039,7 +18039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:11" ht="33.75">
+    <row r="407" spans="1:11" ht="31.8">
       <c r="A407" s="3" t="s">
         <v>416</v>
       </c>
@@ -18074,7 +18074,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="33.75">
+    <row r="408" spans="1:11" ht="31.8">
       <c r="A408" s="3" t="s">
         <v>417</v>
       </c>
@@ -18109,7 +18109,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="33.75">
+    <row r="409" spans="1:11" ht="31.8">
       <c r="A409" s="3" t="s">
         <v>418</v>
       </c>
@@ -18144,7 +18144,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="33.75">
+    <row r="410" spans="1:11" ht="31.8">
       <c r="A410" s="3" t="s">
         <v>419</v>
       </c>
@@ -18179,7 +18179,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="33.75">
+    <row r="411" spans="1:11" ht="31.8">
       <c r="A411" s="3" t="s">
         <v>420</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="33.75">
+    <row r="412" spans="1:11" ht="31.8">
       <c r="A412" s="3" t="s">
         <v>421</v>
       </c>
@@ -18249,7 +18249,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="33.75">
+    <row r="413" spans="1:11" ht="31.8">
       <c r="A413" s="3" t="s">
         <v>422</v>
       </c>
@@ -18284,7 +18284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="414" spans="1:11" ht="33.75">
+    <row r="414" spans="1:11" ht="31.8">
       <c r="A414" s="3" t="s">
         <v>423</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="33.75">
+    <row r="415" spans="1:11" ht="31.8">
       <c r="A415" s="3" t="s">
         <v>424</v>
       </c>
@@ -18354,7 +18354,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="416" spans="1:11" ht="33.75">
+    <row r="416" spans="1:11" ht="31.8">
       <c r="A416" s="3" t="s">
         <v>425</v>
       </c>
@@ -18389,7 +18389,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="33.75">
+    <row r="417" spans="1:11" ht="31.8">
       <c r="A417" s="3" t="s">
         <v>426</v>
       </c>
@@ -18424,7 +18424,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="418" spans="1:11" ht="33.75">
+    <row r="418" spans="1:11" ht="31.8">
       <c r="A418" s="3" t="s">
         <v>427</v>
       </c>
@@ -18459,7 +18459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:11" ht="33.75">
+    <row r="419" spans="1:11" ht="31.8">
       <c r="A419" s="3" t="s">
         <v>428</v>
       </c>
@@ -18494,7 +18494,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="33.75">
+    <row r="420" spans="1:11" ht="31.8">
       <c r="A420" s="3" t="s">
         <v>429</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="33.75">
+    <row r="421" spans="1:11" ht="31.8">
       <c r="A421" s="3" t="s">
         <v>430</v>
       </c>
@@ -18564,7 +18564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="422" spans="1:11" ht="33.75">
+    <row r="422" spans="1:11" ht="31.8">
       <c r="A422" s="3" t="s">
         <v>431</v>
       </c>
@@ -18599,7 +18599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:11" ht="33.75">
+    <row r="423" spans="1:11" ht="31.8">
       <c r="A423" s="3" t="s">
         <v>432</v>
       </c>
@@ -18634,7 +18634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="424" spans="1:11" ht="33.75">
+    <row r="424" spans="1:11" ht="31.8">
       <c r="A424" s="3" t="s">
         <v>433</v>
       </c>
@@ -18669,7 +18669,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="425" spans="1:11" ht="33.75">
+    <row r="425" spans="1:11" ht="31.8">
       <c r="A425" s="3" t="s">
         <v>434</v>
       </c>
@@ -18704,7 +18704,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="426" spans="1:11" ht="33.75">
+    <row r="426" spans="1:11" ht="31.8">
       <c r="A426" s="3" t="s">
         <v>435</v>
       </c>
@@ -18739,7 +18739,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="427" spans="1:11" ht="33.75">
+    <row r="427" spans="1:11" ht="31.8">
       <c r="A427" s="3" t="s">
         <v>436</v>
       </c>
@@ -18774,7 +18774,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="428" spans="1:11" ht="33.75">
+    <row r="428" spans="1:11" ht="31.8">
       <c r="A428" s="3" t="s">
         <v>437</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="429" spans="1:11" ht="33.75">
+    <row r="429" spans="1:11" ht="31.8">
       <c r="A429" s="3" t="s">
         <v>438</v>
       </c>
@@ -18844,7 +18844,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="430" spans="1:11" ht="33.75">
+    <row r="430" spans="1:11" ht="31.8">
       <c r="A430" s="3" t="s">
         <v>439</v>
       </c>
@@ -18879,7 +18879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="431" spans="1:11" ht="33.75">
+    <row r="431" spans="1:11" ht="31.8">
       <c r="A431" s="3" t="s">
         <v>440</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="432" spans="1:11" ht="33.75">
+    <row r="432" spans="1:11" ht="31.8">
       <c r="A432" s="3" t="s">
         <v>441</v>
       </c>
@@ -18949,7 +18949,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="433" spans="1:11" ht="33.75">
+    <row r="433" spans="1:11" ht="31.8">
       <c r="A433" s="3" t="s">
         <v>442</v>
       </c>
@@ -18984,7 +18984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="434" spans="1:11" ht="33.75">
+    <row r="434" spans="1:11" ht="31.8">
       <c r="A434" s="3" t="s">
         <v>443</v>
       </c>
@@ -19019,7 +19019,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="435" spans="1:11" ht="33.75">
+    <row r="435" spans="1:11" ht="31.8">
       <c r="A435" s="3" t="s">
         <v>444</v>
       </c>
@@ -19054,7 +19054,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="436" spans="1:11" ht="33.75">
+    <row r="436" spans="1:11" ht="31.8">
       <c r="A436" s="3" t="s">
         <v>445</v>
       </c>
@@ -19089,7 +19089,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="437" spans="1:11" ht="33.75">
+    <row r="437" spans="1:11" ht="31.8">
       <c r="A437" s="3" t="s">
         <v>446</v>
       </c>
@@ -19124,7 +19124,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="438" spans="1:11" ht="33.75">
+    <row r="438" spans="1:11" ht="31.8">
       <c r="A438" s="3" t="s">
         <v>447</v>
       </c>
@@ -19159,7 +19159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="439" spans="1:11" ht="33.75">
+    <row r="439" spans="1:11" ht="31.8">
       <c r="A439" s="3" t="s">
         <v>448</v>
       </c>
@@ -19194,7 +19194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="440" spans="1:11" ht="33.75">
+    <row r="440" spans="1:11" ht="31.8">
       <c r="A440" s="3" t="s">
         <v>449</v>
       </c>
@@ -19229,7 +19229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="441" spans="1:11" ht="33.75">
+    <row r="441" spans="1:11" ht="31.8">
       <c r="A441" s="3" t="s">
         <v>450</v>
       </c>
@@ -19264,7 +19264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="442" spans="1:11" ht="33.75">
+    <row r="442" spans="1:11" ht="31.8">
       <c r="A442" s="3" t="s">
         <v>451</v>
       </c>
@@ -19299,7 +19299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:11" ht="33.75">
+    <row r="443" spans="1:11" ht="31.8">
       <c r="A443" s="3" t="s">
         <v>452</v>
       </c>
@@ -19334,7 +19334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:11" ht="33.75">
+    <row r="444" spans="1:11" ht="31.8">
       <c r="A444" s="3" t="s">
         <v>453</v>
       </c>
@@ -19369,7 +19369,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="445" spans="1:11" ht="33.75">
+    <row r="445" spans="1:11" ht="31.8">
       <c r="A445" s="3" t="s">
         <v>454</v>
       </c>
@@ -19404,7 +19404,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="446" spans="1:11" ht="33.75">
+    <row r="446" spans="1:11" ht="31.8">
       <c r="A446" s="3" t="s">
         <v>455</v>
       </c>
@@ -19439,7 +19439,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="447" spans="1:11" ht="33.75">
+    <row r="447" spans="1:11" ht="31.8">
       <c r="A447" s="3" t="s">
         <v>456</v>
       </c>
@@ -19474,7 +19474,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="448" spans="1:11" ht="33.75">
+    <row r="448" spans="1:11" ht="31.8">
       <c r="A448" s="3" t="s">
         <v>457</v>
       </c>
@@ -19509,7 +19509,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="449" spans="1:11" ht="33.75">
+    <row r="449" spans="1:11" ht="31.8">
       <c r="A449" s="3" t="s">
         <v>458</v>
       </c>
@@ -19544,7 +19544,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="450" spans="1:11" ht="33.75">
+    <row r="450" spans="1:11" ht="31.8">
       <c r="A450" s="3" t="s">
         <v>459</v>
       </c>
@@ -19579,7 +19579,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="451" spans="1:11" ht="33.75">
+    <row r="451" spans="1:11" ht="31.8">
       <c r="A451" s="3" t="s">
         <v>460</v>
       </c>
@@ -19614,7 +19614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="452" spans="1:11" ht="33.75">
+    <row r="452" spans="1:11" ht="31.8">
       <c r="A452" s="3" t="s">
         <v>461</v>
       </c>
@@ -19649,7 +19649,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="453" spans="1:11" ht="33.75">
+    <row r="453" spans="1:11" ht="31.8">
       <c r="A453" s="3" t="s">
         <v>462</v>
       </c>
@@ -19684,7 +19684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="454" spans="1:11" ht="33.75">
+    <row r="454" spans="1:11" ht="31.8">
       <c r="A454" s="3" t="s">
         <v>463</v>
       </c>
@@ -19719,7 +19719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:11" ht="33.75">
+    <row r="455" spans="1:11" ht="31.8">
       <c r="A455" s="3" t="s">
         <v>464</v>
       </c>
@@ -19754,7 +19754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:11" ht="33.75">
+    <row r="456" spans="1:11" ht="31.8">
       <c r="A456" s="3" t="s">
         <v>465</v>
       </c>
@@ -19789,7 +19789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="457" spans="1:11" ht="33.75">
+    <row r="457" spans="1:11" ht="31.8">
       <c r="A457" s="3" t="s">
         <v>466</v>
       </c>
@@ -19824,7 +19824,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="458" spans="1:11" ht="33.75">
+    <row r="458" spans="1:11" ht="31.8">
       <c r="A458" s="3" t="s">
         <v>467</v>
       </c>
@@ -19859,7 +19859,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="459" spans="1:11" ht="33.75">
+    <row r="459" spans="1:11" ht="31.8">
       <c r="A459" s="3" t="s">
         <v>468</v>
       </c>
@@ -19894,7 +19894,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="460" spans="1:11" ht="33.75">
+    <row r="460" spans="1:11" ht="31.8">
       <c r="A460" s="3" t="s">
         <v>469</v>
       </c>
@@ -19929,7 +19929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="461" spans="1:11" ht="33.75">
+    <row r="461" spans="1:11" ht="31.8">
       <c r="A461" s="3" t="s">
         <v>470</v>
       </c>
@@ -19964,7 +19964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="462" spans="1:11" ht="33.75">
+    <row r="462" spans="1:11" ht="31.8">
       <c r="A462" s="3" t="s">
         <v>471</v>
       </c>
@@ -19999,7 +19999,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="463" spans="1:11" ht="33.75">
+    <row r="463" spans="1:11" ht="31.8">
       <c r="A463" s="3" t="s">
         <v>472</v>
       </c>
@@ -20034,7 +20034,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="464" spans="1:11" ht="33.75">
+    <row r="464" spans="1:11" ht="31.8">
       <c r="A464" s="3" t="s">
         <v>473</v>
       </c>
@@ -20069,7 +20069,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="465" spans="1:11" ht="33.75">
+    <row r="465" spans="1:11" ht="31.8">
       <c r="A465" s="3" t="s">
         <v>474</v>
       </c>
@@ -20104,7 +20104,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="466" spans="1:11" ht="33.75">
+    <row r="466" spans="1:11" ht="31.8">
       <c r="A466" s="5" t="s">
         <v>475</v>
       </c>
@@ -20139,7 +20139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="467" spans="1:11" ht="33.75">
+    <row r="467" spans="1:11" ht="31.8">
       <c r="A467" s="3" t="s">
         <v>476</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="468" spans="1:11" ht="33.75">
+    <row r="468" spans="1:11" ht="31.8">
       <c r="A468" s="5" t="s">
         <v>477</v>
       </c>
@@ -20209,7 +20209,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="469" spans="1:11" ht="33.75">
+    <row r="469" spans="1:11" ht="31.8">
       <c r="A469" s="3" t="s">
         <v>478</v>
       </c>
@@ -20244,7 +20244,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="470" spans="1:11" ht="33.75">
+    <row r="470" spans="1:11" ht="31.8">
       <c r="A470" s="3" t="s">
         <v>479</v>
       </c>
@@ -20279,7 +20279,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="471" spans="1:11" ht="33.75">
+    <row r="471" spans="1:11" ht="31.8">
       <c r="A471" s="3" t="s">
         <v>480</v>
       </c>
@@ -20314,7 +20314,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="472" spans="1:11" ht="33.75">
+    <row r="472" spans="1:11" ht="31.8">
       <c r="A472" s="3" t="s">
         <v>481</v>
       </c>
@@ -20349,7 +20349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:11" ht="33.75">
+    <row r="473" spans="1:11" ht="31.8">
       <c r="A473" s="3" t="s">
         <v>482</v>
       </c>
@@ -20384,7 +20384,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="474" spans="1:11" ht="33.75">
+    <row r="474" spans="1:11" ht="31.8">
       <c r="A474" s="3" t="s">
         <v>483</v>
       </c>
@@ -20419,7 +20419,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="475" spans="1:11" ht="33.75">
+    <row r="475" spans="1:11" ht="31.8">
       <c r="A475" s="3" t="s">
         <v>484</v>
       </c>
@@ -20454,7 +20454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="476" spans="1:11" ht="33.75">
+    <row r="476" spans="1:11" ht="31.8">
       <c r="A476" s="3" t="s">
         <v>485</v>
       </c>
@@ -20489,7 +20489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:11" ht="33.75">
+    <row r="477" spans="1:11" ht="31.8">
       <c r="A477" s="3" t="s">
         <v>486</v>
       </c>
@@ -20524,7 +20524,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="33.75">
+    <row r="478" spans="1:11" ht="31.8">
       <c r="A478" s="3" t="s">
         <v>487</v>
       </c>
@@ -20559,7 +20559,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="33.75">
+    <row r="479" spans="1:11" ht="31.8">
       <c r="A479" s="3" t="s">
         <v>488</v>
       </c>
@@ -20594,7 +20594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="33.75">
+    <row r="480" spans="1:11" ht="31.8">
       <c r="A480" s="3" t="s">
         <v>489</v>
       </c>
@@ -20629,7 +20629,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="481" spans="1:11" ht="33.75">
+    <row r="481" spans="1:11" ht="31.8">
       <c r="A481" s="3" t="s">
         <v>490</v>
       </c>
@@ -20664,7 +20664,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="482" spans="1:11" ht="33.75">
+    <row r="482" spans="1:11" ht="31.8">
       <c r="A482" s="3" t="s">
         <v>491</v>
       </c>
@@ -20699,7 +20699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:11" ht="33.75">
+    <row r="483" spans="1:11" ht="31.8">
       <c r="A483" s="3" t="s">
         <v>492</v>
       </c>
@@ -20734,7 +20734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:11" ht="33.75">
+    <row r="484" spans="1:11" ht="31.8">
       <c r="A484" s="3" t="s">
         <v>493</v>
       </c>
@@ -20769,7 +20769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:11" ht="33.75">
+    <row r="485" spans="1:11" ht="31.8">
       <c r="A485" s="3" t="s">
         <v>494</v>
       </c>
@@ -20804,7 +20804,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="486" spans="1:11" ht="33.75">
+    <row r="486" spans="1:11" ht="31.8">
       <c r="A486" s="3" t="s">
         <v>495</v>
       </c>
@@ -20839,7 +20839,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="487" spans="1:11" ht="33.75">
+    <row r="487" spans="1:11" ht="31.8">
       <c r="A487" s="3" t="s">
         <v>496</v>
       </c>
@@ -20874,7 +20874,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="488" spans="1:11" ht="33.75">
+    <row r="488" spans="1:11" ht="31.8">
       <c r="A488" s="3" t="s">
         <v>497</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="489" spans="1:11" ht="33.75">
+    <row r="489" spans="1:11" ht="31.8">
       <c r="A489" s="3" t="s">
         <v>498</v>
       </c>
@@ -20944,7 +20944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="490" spans="1:11" ht="33.75">
+    <row r="490" spans="1:11" ht="31.8">
       <c r="A490" s="3" t="s">
         <v>499</v>
       </c>
@@ -20979,7 +20979,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="491" spans="1:11" ht="33.75">
+    <row r="491" spans="1:11" ht="31.8">
       <c r="A491" s="3" t="s">
         <v>500</v>
       </c>
@@ -21014,7 +21014,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="492" spans="1:11" ht="33.75">
+    <row r="492" spans="1:11" ht="31.8">
       <c r="A492" s="3" t="s">
         <v>501</v>
       </c>
@@ -21049,7 +21049,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="493" spans="1:11" ht="33.75">
+    <row r="493" spans="1:11" ht="31.8">
       <c r="A493" s="3" t="s">
         <v>502</v>
       </c>
@@ -21084,7 +21084,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="494" spans="1:11" ht="33.75">
+    <row r="494" spans="1:11" ht="31.8">
       <c r="A494" s="3" t="s">
         <v>503</v>
       </c>
@@ -21119,7 +21119,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="495" spans="1:11" ht="33.75">
+    <row r="495" spans="1:11" ht="31.8">
       <c r="A495" s="3" t="s">
         <v>504</v>
       </c>
@@ -21154,7 +21154,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="496" spans="1:11" ht="33.75">
+    <row r="496" spans="1:11" ht="31.8">
       <c r="A496" s="3" t="s">
         <v>505</v>
       </c>
@@ -21189,7 +21189,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="497" spans="1:11" ht="33.75">
+    <row r="497" spans="1:11" ht="31.8">
       <c r="A497" s="3" t="s">
         <v>506</v>
       </c>
@@ -21224,7 +21224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="498" spans="1:11" ht="33.75">
+    <row r="498" spans="1:11" ht="31.8">
       <c r="A498" s="3" t="s">
         <v>507</v>
       </c>
@@ -21259,7 +21259,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="499" spans="1:11" ht="33.75">
+    <row r="499" spans="1:11" ht="31.8">
       <c r="A499" s="3" t="s">
         <v>508</v>
       </c>
@@ -21294,7 +21294,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="500" spans="1:11" ht="33.75">
+    <row r="500" spans="1:11" ht="31.8">
       <c r="A500" s="3" t="s">
         <v>509</v>
       </c>
@@ -21329,7 +21329,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="501" spans="1:11" ht="33.75">
+    <row r="501" spans="1:11" ht="31.8">
       <c r="A501" s="3" t="s">
         <v>510</v>
       </c>
